--- a/Data/Transitions/19571965Translation.xlsx
+++ b/Data/Transitions/19571965Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="645">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1751,9 +1751,6 @@
   </si>
   <si>
     <t>{237.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3962,7 +3959,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>579</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3973,7 +3970,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3984,7 +3981,7 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4171,7 +4168,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4182,7 +4179,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4237,7 +4234,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4292,7 +4289,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4380,7 +4377,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4512,7 +4509,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4556,7 +4553,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4699,7 +4696,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>579</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4743,7 +4740,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4754,7 +4751,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4919,7 +4916,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4974,7 +4971,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5073,7 +5070,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5183,7 +5180,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5205,7 +5202,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5216,7 +5213,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5227,7 +5224,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5238,7 +5235,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5436,7 +5433,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5524,7 +5521,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5535,7 +5532,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5700,7 +5697,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5733,7 +5730,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5755,7 +5752,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5799,7 +5796,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5821,7 +5818,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5865,7 +5862,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5920,7 +5917,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5953,7 +5950,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6074,7 +6071,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6085,7 +6082,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6129,7 +6126,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6151,7 +6148,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6162,7 +6159,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6261,7 +6258,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6371,7 +6368,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6481,7 +6478,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6492,7 +6489,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6503,7 +6500,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6657,7 +6654,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6668,7 +6665,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6888,7 +6885,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7196,7 +7193,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7251,7 +7248,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7273,7 +7270,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7284,7 +7281,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7295,7 +7292,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7328,7 +7325,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7405,7 +7402,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7592,7 +7589,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7625,7 +7622,7 @@
         <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7669,7 +7666,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7702,7 +7699,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7812,7 +7809,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7867,7 +7864,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7878,7 +7875,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7955,7 +7952,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7988,7 +7985,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8021,7 +8018,7 @@
         <v>520</v>
       </c>
       <c r="C519" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -8109,7 +8106,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8131,7 +8128,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8153,7 +8150,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8164,7 +8161,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8186,7 +8183,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8208,7 +8205,7 @@
         <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="537" spans="1:3">
